--- a/for_manuscript/dna_repair.xlsx
+++ b/for_manuscript/dna_repair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MGierlinski/Work/Projects/NCCProt/for_manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C3289-9AA9-144D-980F-B7DD85CEE786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BE207-38C4-854F-AD8E-3C8962C591E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42220" yWindow="500" windowWidth="27640" windowHeight="16140" xr2:uid="{A84C6859-7E97-F04D-BE36-280212265A16}"/>
+    <workbookView xWindow="23000" yWindow="7540" windowWidth="27640" windowHeight="16140" xr2:uid="{A84C6859-7E97-F04D-BE36-280212265A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 3A and B" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="415">
   <si>
     <t>APEX1</t>
   </si>
@@ -1250,36 +1250,6 @@
     <t>uniprot</t>
   </si>
   <si>
-    <t>INO80</t>
-  </si>
-  <si>
-    <t>mSIN3</t>
-  </si>
-  <si>
-    <t>BRD4</t>
-  </si>
-  <si>
-    <t>ARID1A</t>
-  </si>
-  <si>
-    <t>PBRM1</t>
-  </si>
-  <si>
-    <t>SIRT7</t>
-  </si>
-  <si>
-    <t>ATRX</t>
-  </si>
-  <si>
-    <t>XAB2</t>
-  </si>
-  <si>
-    <t>U2AF1</t>
-  </si>
-  <si>
-    <t>NPL3</t>
-  </si>
-  <si>
     <t>PIF1</t>
   </si>
   <si>
@@ -1289,15 +1259,6 @@
     <t>DDX23</t>
   </si>
   <si>
-    <t>AQR</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>UAP56</t>
-  </si>
-  <si>
     <t>DDX5</t>
   </si>
   <si>
@@ -1307,39 +1268,9 @@
     <t>DHX9</t>
   </si>
   <si>
-    <t>TRDMT1</t>
-  </si>
-  <si>
-    <t>METTL3</t>
-  </si>
-  <si>
-    <t>YTHDF2</t>
-  </si>
-  <si>
-    <t>TonEBP</t>
-  </si>
-  <si>
-    <t>XRN2</t>
-  </si>
-  <si>
-    <t>MYCN</t>
-  </si>
-  <si>
     <t>SETX</t>
   </si>
   <si>
-    <t>RNASH1H1</t>
-  </si>
-  <si>
-    <t>CtIP</t>
-  </si>
-  <si>
-    <t>RNASEH2</t>
-  </si>
-  <si>
-    <t>Exosome</t>
-  </si>
-  <si>
     <t>TOP2A</t>
   </si>
   <si>
@@ -1349,13 +1280,7 @@
     <t>Conflicts</t>
   </si>
   <si>
-    <t>SRSF1</t>
-  </si>
-  <si>
-    <t>DDX19A</t>
-  </si>
-  <si>
-    <t>THOC7</t>
+    <t xml:space="preserve">DDX19   </t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A404D75-732E-9C4D-9544-6CFF478544A4}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4056,403 +3981,248 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>405</v>
+        <v>179</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>406</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>439</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>411</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>429</v>
+        <v>164</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>414</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>416</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>436</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="B232" s="1"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>436</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="B233" s="1"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>436</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="B234" s="1"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>436</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>436</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="B236" s="1"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>436</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="B237" s="1"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>436</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="B238" s="1"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>436</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="B239" s="1"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>436</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>436</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>436</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>436</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>436</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>436</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>436</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>436</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>436</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>436</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>436</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>436</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>436</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>436</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>436</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>436</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>436</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>436</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>436</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>436</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>436</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>436</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>436</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" s="1"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
